--- a/datasets/example2/MatchupTable.xlsx
+++ b/datasets/example2/MatchupTable.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,24 +546,20 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>23.92</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B3" s="1" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>308</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
@@ -571,67 +567,31 @@
           <t>right</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>Shallowford+Gunbarrel_07112023.xls</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>7/11/2023</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>0417) Shallowford Rd &amp; Gunbarrel Rd</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>NBR</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>Synchro_signal.csv</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>NBR</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>23.92</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B4" s="1" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>308</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>306</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -642,40 +602,28 @@
       <c r="G4" s="1" t="n"/>
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="1" t="n"/>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>NBT</t>
-        </is>
-      </c>
+      <c r="J4" s="1" t="n"/>
       <c r="K4" s="1" t="n"/>
       <c r="L4" s="1" t="n"/>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>NBT</t>
-        </is>
-      </c>
+      <c r="M4" s="1" t="n"/>
       <c r="N4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>23.92</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B5" s="1" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>308</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -686,40 +634,28 @@
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>NBL</t>
-        </is>
-      </c>
+      <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
       <c r="L5" s="1" t="n"/>
-      <c r="M5" s="1" t="inlineStr">
-        <is>
-          <t>NBL</t>
-        </is>
-      </c>
+      <c r="M5" s="1" t="n"/>
       <c r="N5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>23.92</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B6" s="1" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>308</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -730,40 +666,28 @@
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
-      <c r="J6" s="1" t="inlineStr">
-        <is>
-          <t>NBU</t>
-        </is>
-      </c>
+      <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="1" t="n"/>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>NBU</t>
-        </is>
-      </c>
+      <c r="M6" s="1" t="n"/>
       <c r="N6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>114.05</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B7" s="1" t="n">
+        <v>114.05</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>328</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -774,40 +698,28 @@
       <c r="G7" s="1" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>EBR</t>
-        </is>
-      </c>
+      <c r="J7" s="1" t="n"/>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
-      <c r="M7" s="1" t="inlineStr">
-        <is>
-          <t>EBR</t>
-        </is>
-      </c>
+      <c r="M7" s="1" t="n"/>
       <c r="N7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>114.05</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B8" s="1" t="n">
+        <v>114.05</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>328</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -818,40 +730,28 @@
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>EBT</t>
-        </is>
-      </c>
+      <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>EBT</t>
-        </is>
-      </c>
+      <c r="M8" s="1" t="n"/>
       <c r="N8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>114.05</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B9" s="1" t="n">
+        <v>114.05</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>328</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>306</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
@@ -862,40 +762,28 @@
       <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>EBL</t>
-        </is>
-      </c>
+      <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>EBL</t>
-        </is>
-      </c>
+      <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>114.05</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B10" s="1" t="n">
+        <v>114.05</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>328</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
@@ -906,40 +794,28 @@
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>EBU</t>
-        </is>
-      </c>
+      <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
-      <c r="M10" s="1" t="inlineStr">
-        <is>
-          <t>EBU</t>
-        </is>
-      </c>
+      <c r="M10" s="1" t="n"/>
       <c r="N10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>201.58</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="B11" s="1" t="n">
+        <v>201.62</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
@@ -950,40 +826,28 @@
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n"/>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>SBR</t>
-        </is>
-      </c>
+      <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
-      <c r="M11" s="1" t="inlineStr">
-        <is>
-          <t>SBR</t>
-        </is>
-      </c>
+      <c r="M11" s="1" t="n"/>
       <c r="N11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>201.58</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="B12" s="1" t="n">
+        <v>201.62</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
@@ -994,40 +858,28 @@
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
       <c r="I12" s="1" t="n"/>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>SBT</t>
-        </is>
-      </c>
+      <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
-      <c r="M12" s="1" t="inlineStr">
-        <is>
-          <t>SBT</t>
-        </is>
-      </c>
+      <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>201.58</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="B13" s="1" t="n">
+        <v>201.62</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
@@ -1038,40 +890,28 @@
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>SBL</t>
-        </is>
-      </c>
+      <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
-      <c r="M13" s="1" t="inlineStr">
-        <is>
-          <t>SBL</t>
-        </is>
-      </c>
+      <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>201.58</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="B14" s="1" t="n">
+        <v>201.62</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>326</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>306</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
@@ -1082,40 +922,28 @@
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>SBU</t>
-        </is>
-      </c>
+      <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="inlineStr">
-        <is>
-          <t>SBU</t>
-        </is>
-      </c>
+      <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>294.03</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B15" s="1" t="n">
+        <v>294.03</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>306</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
@@ -1126,40 +954,28 @@
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>WBR</t>
-        </is>
-      </c>
+      <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="inlineStr">
-        <is>
-          <t>WBR</t>
-        </is>
-      </c>
+      <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>294.03</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B16" s="1" t="n">
+        <v>294.03</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
@@ -1170,40 +986,28 @@
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>WBT</t>
-        </is>
-      </c>
+      <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="inlineStr">
-        <is>
-          <t>WBT</t>
-        </is>
-      </c>
+      <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>294.03</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B17" s="1" t="n">
+        <v>294.03</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>305</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
@@ -1214,40 +1018,28 @@
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
-      <c r="J17" s="1" t="inlineStr">
-        <is>
-          <t>WBL</t>
-        </is>
-      </c>
+      <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="inlineStr">
-        <is>
-          <t>WBL</t>
-        </is>
-      </c>
+      <c r="M17" s="1" t="n"/>
       <c r="N17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>294.03</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B18" s="1" t="n">
+        <v>294.03</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>280</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>304</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
@@ -1258,420 +1050,320 @@
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>WBU</t>
-        </is>
-      </c>
+      <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="1" t="inlineStr">
-        <is>
-          <t>WBU</t>
-        </is>
-      </c>
+      <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>113.92</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>317</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>284</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>thru</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v/>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v/>
-      </c>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
-      <c r="L19" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N19" s="1" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>113.92</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B20" s="1" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>317</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>283</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>thru</t>
         </is>
       </c>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J20" s="1" t="n"/>
       <c r="K20" s="1" t="n"/>
       <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M20" s="1" t="n"/>
       <c r="N20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>113.92</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="B21" s="1" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>317</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>Uturn</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1" t="n"/>
-      <c r="J21" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
       <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>193.66</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="B22" s="1" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>317</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>282</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>Uturn</t>
         </is>
       </c>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1" t="n"/>
-      <c r="J22" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J22" s="1" t="n"/>
       <c r="K22" s="1" t="n"/>
       <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>193.66</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="B23" s="1" t="n">
+        <v>113.77</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>282</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
-      <c r="J23" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J23" s="1" t="n"/>
       <c r="K23" s="1" t="n"/>
       <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>193.66</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="B24" s="1" t="n">
+        <v>113.77</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>284</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>Uturn</t>
+          <t>thru</t>
         </is>
       </c>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
-      <c r="J24" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J24" s="1" t="n"/>
       <c r="K24" s="1" t="n"/>
       <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>294.06</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B25" s="1" t="n">
+        <v>113.77</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>283</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
-      <c r="J25" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J25" s="1" t="n"/>
       <c r="K25" s="1" t="n"/>
       <c r="L25" s="1" t="n"/>
-      <c r="M25" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>294.06</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B26" s="1" t="n">
+        <v>113.77</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>313</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>thru</t>
+          <t>Uturn</t>
         </is>
       </c>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
-      <c r="J26" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J26" s="1" t="n"/>
       <c r="K26" s="1" t="n"/>
       <c r="L26" s="1" t="n"/>
-      <c r="M26" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>294.06</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B27" s="1" t="n">
+        <v>204.06</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>318</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>Uturn</t>
+          <t>right</t>
         </is>
       </c>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
-      <c r="J27" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J27" s="1" t="n"/>
       <c r="K27" s="1" t="n"/>
       <c r="L27" s="1" t="n"/>
-      <c r="M27" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n">
+        <v>204.06</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>318</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>282</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
@@ -1679,51 +1371,31 @@
           <t>thru</t>
         </is>
       </c>
-      <c r="G28" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I28" s="1" t="n">
-        <v/>
-      </c>
-      <c r="J28" s="1" t="n">
-        <v/>
-      </c>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
       <c r="K28" s="1" t="n"/>
-      <c r="L28" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N28" s="1" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B29" s="1" t="n">
+        <v>204.06</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>318</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>284</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
@@ -1734,36 +1406,28 @@
       <c r="G29" s="1" t="n"/>
       <c r="H29" s="1" t="n"/>
       <c r="I29" s="1" t="n"/>
-      <c r="J29" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J29" s="1" t="n"/>
       <c r="K29" s="1" t="n"/>
       <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M29" s="1" t="n"/>
       <c r="N29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B30" s="1" t="n">
+        <v>204.06</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>318</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>283</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
@@ -1774,36 +1438,28 @@
       <c r="G30" s="1" t="n"/>
       <c r="H30" s="1" t="n"/>
       <c r="I30" s="1" t="n"/>
-      <c r="J30" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J30" s="1" t="n"/>
       <c r="K30" s="1" t="n"/>
       <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M30" s="1" t="n"/>
       <c r="N30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>115.14</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="B31" s="1" t="n">
+        <v>294.01</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>283</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
@@ -1814,443 +1470,2957 @@
       <c r="G31" s="1" t="n"/>
       <c r="H31" s="1" t="n"/>
       <c r="I31" s="1" t="n"/>
-      <c r="J31" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J31" s="1" t="n"/>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="n"/>
-      <c r="M31" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M31" s="1" t="n"/>
       <c r="N31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>115.14</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="B32" s="1" t="n">
+        <v>294.01</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>thru</t>
         </is>
       </c>
       <c r="G32" s="1" t="n"/>
       <c r="H32" s="1" t="n"/>
       <c r="I32" s="1" t="n"/>
-      <c r="J32" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J32" s="1" t="n"/>
       <c r="K32" s="1" t="n"/>
       <c r="L32" s="1" t="n"/>
-      <c r="M32" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M32" s="1" t="n"/>
       <c r="N32" s="1" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>115.14</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="B33" s="1" t="n">
+        <v>294.01</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>282</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>Uturn</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G33" s="1" t="n"/>
       <c r="H33" s="1" t="n"/>
       <c r="I33" s="1" t="n"/>
-      <c r="J33" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J33" s="1" t="n"/>
       <c r="K33" s="1" t="n"/>
       <c r="L33" s="1" t="n"/>
-      <c r="M33" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M33" s="1" t="n"/>
       <c r="N33" s="1" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>205.09</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B34" s="1" t="n">
+        <v>294.01</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>327</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>284</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>Uturn</t>
         </is>
       </c>
       <c r="G34" s="1" t="n"/>
       <c r="H34" s="1" t="n"/>
       <c r="I34" s="1" t="n"/>
-      <c r="J34" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J34" s="1" t="n"/>
       <c r="K34" s="1" t="n"/>
       <c r="L34" s="1" t="n"/>
-      <c r="M34" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M34" s="1" t="n"/>
       <c r="N34" s="1" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>205.09</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>316</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>313</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>thru</t>
+          <t>right</t>
         </is>
       </c>
       <c r="G35" s="1" t="n"/>
       <c r="H35" s="1" t="n"/>
       <c r="I35" s="1" t="n"/>
-      <c r="J35" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J35" s="1" t="n"/>
       <c r="K35" s="1" t="n"/>
       <c r="L35" s="1" t="n"/>
-      <c r="M35" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M35" s="1" t="n"/>
       <c r="N35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>205.09</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="B36" s="1" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>316</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>315</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>Uturn</t>
+          <t>left</t>
         </is>
       </c>
       <c r="G36" s="1" t="n"/>
       <c r="H36" s="1" t="n"/>
       <c r="I36" s="1" t="n"/>
-      <c r="J36" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J36" s="1" t="n"/>
       <c r="K36" s="1" t="n"/>
       <c r="L36" s="1" t="n"/>
-      <c r="M36" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M36" s="1" t="n"/>
       <c r="N36" s="1" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>23.17</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>316</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>314</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H37" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I37" s="1" t="n">
-        <v/>
-      </c>
-      <c r="J37" s="1" t="n">
-        <v/>
-      </c>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
       <c r="K37" s="1" t="n"/>
-      <c r="L37" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N37" s="1" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>291.71</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B38" s="1" t="n">
+        <v>113.74</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>322</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>314</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>right</t>
         </is>
       </c>
       <c r="G38" s="1" t="n"/>
       <c r="H38" s="1" t="n"/>
       <c r="I38" s="1" t="n"/>
-      <c r="J38" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J38" s="1" t="n"/>
       <c r="K38" s="1" t="n"/>
       <c r="L38" s="1" t="n"/>
-      <c r="M38" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M38" s="1" t="n"/>
       <c r="N38" s="1" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n">
+        <v>113.74</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>322</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>313</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>right</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v/>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v/>
-      </c>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
-      <c r="L39" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N39" s="1" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>291.01</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="B40" s="1" t="n">
+        <v>113.74</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>322</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>315</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>left</t>
+          <t>Uturn</t>
         </is>
       </c>
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
       <c r="I40" s="1" t="n"/>
-      <c r="J40" s="1" t="n">
-        <v/>
-      </c>
+      <c r="J40" s="1" t="n"/>
       <c r="K40" s="1" t="n"/>
       <c r="L40" s="1" t="n"/>
-      <c r="M40" s="1" t="n">
-        <v/>
-      </c>
+      <c r="M40" s="1" t="n"/>
       <c r="N40" s="1" t="n"/>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>293.76</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n">
+        <v>293.76</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n">
+        <v>293.76</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>113.89</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
+      <c r="N44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n">
+        <v>113.89</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n">
+        <v>113.89</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>193.79</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n">
+        <v>193.79</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n">
+        <v>193.79</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n">
+        <v>294.06</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="n"/>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+      <c r="M50" s="1" t="n"/>
+      <c r="N50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n">
+        <v>294.06</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>294.06</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="n"/>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="n"/>
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n">
+        <v>114.35</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="n"/>
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n">
+        <v>296.67</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n">
+        <v>296.67</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="n"/>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n">
+        <v>296.67</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="n"/>
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>111.49</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n">
+        <v>111.49</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n">
+        <v>111.49</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n">
+        <v>235.09</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n">
+        <v>235.09</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="n"/>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n">
+        <v>235.09</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n">
+        <v>291.86</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n">
+        <v>291.86</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n">
+        <v>291.86</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n">
+        <v>116.65</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n"/>
+      <c r="I75" s="1" t="n"/>
+      <c r="J75" s="1" t="n"/>
+      <c r="K75" s="1" t="n"/>
+      <c r="L75" s="1" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n">
+        <v>116.65</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n"/>
+      <c r="I76" s="1" t="n"/>
+      <c r="J76" s="1" t="n"/>
+      <c r="K76" s="1" t="n"/>
+      <c r="L76" s="1" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n">
+        <v>116.65</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n">
+        <v>116.65</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="n"/>
+      <c r="H78" s="1" t="n"/>
+      <c r="I78" s="1" t="n"/>
+      <c r="J78" s="1" t="n"/>
+      <c r="K78" s="1" t="n"/>
+      <c r="L78" s="1" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n">
+        <v>202.42</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n"/>
+      <c r="I79" s="1" t="n"/>
+      <c r="J79" s="1" t="n"/>
+      <c r="K79" s="1" t="n"/>
+      <c r="L79" s="1" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n">
+        <v>202.42</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+      <c r="L80" s="1" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n">
+        <v>202.42</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n"/>
+      <c r="I81" s="1" t="n"/>
+      <c r="J81" s="1" t="n"/>
+      <c r="K81" s="1" t="n"/>
+      <c r="L81" s="1" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n">
+        <v>202.42</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="1" t="n"/>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n">
+        <v>294.22</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n">
+        <v>294.22</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G84" s="1" t="n"/>
+      <c r="H84" s="1" t="n"/>
+      <c r="I84" s="1" t="n"/>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>294.22</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n"/>
+      <c r="I85" s="1" t="n"/>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n">
+        <v>294.22</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="1" t="n"/>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="1" t="n"/>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n">
+        <v>113.22</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G90" s="1" t="n"/>
+      <c r="H90" s="1" t="n"/>
+      <c r="I90" s="1" t="n"/>
+      <c r="J90" s="1" t="n"/>
+      <c r="K90" s="1" t="n"/>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n">
+        <v>113.22</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="F91" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n"/>
+      <c r="I91" s="1" t="n"/>
+      <c r="J91" s="1" t="n"/>
+      <c r="K91" s="1" t="n"/>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n">
+        <v>113.22</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n"/>
+      <c r="I92" s="1" t="n"/>
+      <c r="J92" s="1" t="n"/>
+      <c r="K92" s="1" t="n"/>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n">
+        <v>291.49</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n"/>
+      <c r="I93" s="1" t="n"/>
+      <c r="J93" s="1" t="n"/>
+      <c r="K93" s="1" t="n"/>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n">
+        <v>291.49</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="F94" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n"/>
+      <c r="I94" s="1" t="n"/>
+      <c r="J94" s="1" t="n"/>
+      <c r="K94" s="1" t="n"/>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n">
+        <v>291.49</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F96" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n"/>
+      <c r="I97" s="1" t="n"/>
+      <c r="J97" s="1" t="n"/>
+      <c r="K97" s="1" t="n"/>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n"/>
+      <c r="I98" s="1" t="n"/>
+      <c r="J98" s="1" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n"/>
+      <c r="I99" s="1" t="n"/>
+      <c r="J99" s="1" t="n"/>
+      <c r="K99" s="1" t="n"/>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F101" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="n"/>
+      <c r="H101" s="1" t="n"/>
+      <c r="I101" s="1" t="n"/>
+      <c r="J101" s="1" t="n"/>
+      <c r="K101" s="1" t="n"/>
+      <c r="L101" s="1" t="n"/>
+      <c r="M101" s="1" t="n"/>
+      <c r="N101" s="1" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="n"/>
+      <c r="H102" s="1" t="n"/>
+      <c r="I102" s="1" t="n"/>
+      <c r="J102" s="1" t="n"/>
+      <c r="K102" s="1" t="n"/>
+      <c r="L102" s="1" t="n"/>
+      <c r="M102" s="1" t="n"/>
+      <c r="N102" s="1" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n">
+        <v>114.29</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G103" s="1" t="n"/>
+      <c r="H103" s="1" t="n"/>
+      <c r="I103" s="1" t="n"/>
+      <c r="J103" s="1" t="n"/>
+      <c r="K103" s="1" t="n"/>
+      <c r="L103" s="1" t="n"/>
+      <c r="M103" s="1" t="n"/>
+      <c r="N103" s="1" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F104" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="n"/>
+      <c r="H104" s="1" t="n"/>
+      <c r="I104" s="1" t="n"/>
+      <c r="J104" s="1" t="n"/>
+      <c r="K104" s="1" t="n"/>
+      <c r="L104" s="1" t="n"/>
+      <c r="M104" s="1" t="n"/>
+      <c r="N104" s="1" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F105" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="n"/>
+      <c r="H105" s="1" t="n"/>
+      <c r="I105" s="1" t="n"/>
+      <c r="J105" s="1" t="n"/>
+      <c r="K105" s="1" t="n"/>
+      <c r="L105" s="1" t="n"/>
+      <c r="M105" s="1" t="n"/>
+      <c r="N105" s="1" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="n"/>
+      <c r="H106" s="1" t="n"/>
+      <c r="I106" s="1" t="n"/>
+      <c r="J106" s="1" t="n"/>
+      <c r="K106" s="1" t="n"/>
+      <c r="L106" s="1" t="n"/>
+      <c r="M106" s="1" t="n"/>
+      <c r="N106" s="1" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G107" s="1" t="n"/>
+      <c r="H107" s="1" t="n"/>
+      <c r="I107" s="1" t="n"/>
+      <c r="J107" s="1" t="n"/>
+      <c r="K107" s="1" t="n"/>
+      <c r="L107" s="1" t="n"/>
+      <c r="M107" s="1" t="n"/>
+      <c r="N107" s="1" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G108" s="1" t="n"/>
+      <c r="H108" s="1" t="n"/>
+      <c r="I108" s="1" t="n"/>
+      <c r="J108" s="1" t="n"/>
+      <c r="K108" s="1" t="n"/>
+      <c r="L108" s="1" t="n"/>
+      <c r="M108" s="1" t="n"/>
+      <c r="N108" s="1" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G109" s="1" t="n"/>
+      <c r="H109" s="1" t="n"/>
+      <c r="I109" s="1" t="n"/>
+      <c r="J109" s="1" t="n"/>
+      <c r="K109" s="1" t="n"/>
+      <c r="L109" s="1" t="n"/>
+      <c r="M109" s="1" t="n"/>
+      <c r="N109" s="1" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="F110" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G110" s="1" t="n"/>
+      <c r="H110" s="1" t="n"/>
+      <c r="I110" s="1" t="n"/>
+      <c r="J110" s="1" t="n"/>
+      <c r="K110" s="1" t="n"/>
+      <c r="L110" s="1" t="n"/>
+      <c r="M110" s="1" t="n"/>
+      <c r="N110" s="1" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F111" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G111" s="1" t="n"/>
+      <c r="H111" s="1" t="n"/>
+      <c r="I111" s="1" t="n"/>
+      <c r="J111" s="1" t="n"/>
+      <c r="K111" s="1" t="n"/>
+      <c r="L111" s="1" t="n"/>
+      <c r="M111" s="1" t="n"/>
+      <c r="N111" s="1" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F112" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G112" s="1" t="n"/>
+      <c r="H112" s="1" t="n"/>
+      <c r="I112" s="1" t="n"/>
+      <c r="J112" s="1" t="n"/>
+      <c r="K112" s="1" t="n"/>
+      <c r="L112" s="1" t="n"/>
+      <c r="M112" s="1" t="n"/>
+      <c r="N112" s="1" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F113" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G113" s="1" t="n"/>
+      <c r="H113" s="1" t="n"/>
+      <c r="I113" s="1" t="n"/>
+      <c r="J113" s="1" t="n"/>
+      <c r="K113" s="1" t="n"/>
+      <c r="L113" s="1" t="n"/>
+      <c r="M113" s="1" t="n"/>
+      <c r="N113" s="1" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F114" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G114" s="1" t="n"/>
+      <c r="H114" s="1" t="n"/>
+      <c r="I114" s="1" t="n"/>
+      <c r="J114" s="1" t="n"/>
+      <c r="K114" s="1" t="n"/>
+      <c r="L114" s="1" t="n"/>
+      <c r="M114" s="1" t="n"/>
+      <c r="N114" s="1" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n">
+        <v>114.22</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F115" s="1" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
+      </c>
+      <c r="G115" s="1" t="n"/>
+      <c r="H115" s="1" t="n"/>
+      <c r="I115" s="1" t="n"/>
+      <c r="J115" s="1" t="n"/>
+      <c r="K115" s="1" t="n"/>
+      <c r="L115" s="1" t="n"/>
+      <c r="M115" s="1" t="n"/>
+      <c r="N115" s="1" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n">
+        <v>114.22</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F116" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G116" s="1" t="n"/>
+      <c r="H116" s="1" t="n"/>
+      <c r="I116" s="1" t="n"/>
+      <c r="J116" s="1" t="n"/>
+      <c r="K116" s="1" t="n"/>
+      <c r="L116" s="1" t="n"/>
+      <c r="M116" s="1" t="n"/>
+      <c r="N116" s="1" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n">
+        <v>114.22</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F117" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G117" s="1" t="n"/>
+      <c r="H117" s="1" t="n"/>
+      <c r="I117" s="1" t="n"/>
+      <c r="J117" s="1" t="n"/>
+      <c r="K117" s="1" t="n"/>
+      <c r="L117" s="1" t="n"/>
+      <c r="M117" s="1" t="n"/>
+      <c r="N117" s="1" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n">
+        <v>293.28</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="F118" s="1" t="inlineStr">
+        <is>
+          <t>thru</t>
+        </is>
+      </c>
+      <c r="G118" s="1" t="n"/>
+      <c r="H118" s="1" t="n"/>
+      <c r="I118" s="1" t="n"/>
+      <c r="J118" s="1" t="n"/>
+      <c r="K118" s="1" t="n"/>
+      <c r="L118" s="1" t="n"/>
+      <c r="M118" s="1" t="n"/>
+      <c r="N118" s="1" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n">
+        <v>293.28</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F119" s="1" t="inlineStr">
+        <is>
+          <t>left</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="n"/>
+      <c r="H119" s="1" t="n"/>
+      <c r="I119" s="1" t="n"/>
+      <c r="J119" s="1" t="n"/>
+      <c r="K119" s="1" t="n"/>
+      <c r="L119" s="1" t="n"/>
+      <c r="M119" s="1" t="n"/>
+      <c r="N119" s="1" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n">
+        <v>293.28</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F120" s="1" t="inlineStr">
+        <is>
+          <t>Uturn</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="n"/>
+      <c r="H120" s="1" t="n"/>
+      <c r="I120" s="1" t="n"/>
+      <c r="J120" s="1" t="n"/>
+      <c r="K120" s="1" t="n"/>
+      <c r="L120" s="1" t="n"/>
+      <c r="M120" s="1" t="n"/>
+      <c r="N120" s="1" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="G28:G36"/>
-    <mergeCell ref="I28:I36"/>
+  <mergeCells count="64">
+    <mergeCell ref="N53:N61"/>
+    <mergeCell ref="I71:I86"/>
     <mergeCell ref="A3:A18"/>
+    <mergeCell ref="N112:N120"/>
+    <mergeCell ref="G87:G95"/>
+    <mergeCell ref="K3:K120"/>
+    <mergeCell ref="I87:I95"/>
+    <mergeCell ref="G112:G120"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="N19:N27"/>
-    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="G62:G70"/>
+    <mergeCell ref="N19:N34"/>
+    <mergeCell ref="G53:G61"/>
+    <mergeCell ref="I62:I70"/>
+    <mergeCell ref="H96:H111"/>
+    <mergeCell ref="I53:I61"/>
+    <mergeCell ref="A19:A34"/>
+    <mergeCell ref="H19:H34"/>
+    <mergeCell ref="I112:I120"/>
+    <mergeCell ref="I19:I34"/>
+    <mergeCell ref="H71:H86"/>
+    <mergeCell ref="L35:L43"/>
+    <mergeCell ref="L44:L52"/>
     <mergeCell ref="H3:H18"/>
-    <mergeCell ref="K3:K40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H28:H36"/>
-    <mergeCell ref="N28:N36"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="H19:H27"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="L19:L27"/>
-    <mergeCell ref="L28:L36"/>
+    <mergeCell ref="N44:N52"/>
+    <mergeCell ref="L96:L111"/>
+    <mergeCell ref="A96:A111"/>
+    <mergeCell ref="G35:G43"/>
+    <mergeCell ref="A62:A70"/>
+    <mergeCell ref="H62:H70"/>
+    <mergeCell ref="I35:I43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="G44:G52"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="I44:I52"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="G71:G86"/>
+    <mergeCell ref="H87:H95"/>
+    <mergeCell ref="N87:N95"/>
+    <mergeCell ref="G96:G111"/>
+    <mergeCell ref="A112:A120"/>
+    <mergeCell ref="L19:L34"/>
+    <mergeCell ref="G19:G34"/>
+    <mergeCell ref="H35:H43"/>
+    <mergeCell ref="N35:N43"/>
+    <mergeCell ref="L71:L86"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="H53:H61"/>
     <mergeCell ref="N3:N18"/>
+    <mergeCell ref="N62:N70"/>
+    <mergeCell ref="N71:N86"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L3:L18"/>
     <mergeCell ref="G3:G18"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="I96:I111"/>
+    <mergeCell ref="N96:N111"/>
     <mergeCell ref="I3:I18"/>
-    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="L87:L95"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="H112:H120"/>
+    <mergeCell ref="L112:L120"/>
+    <mergeCell ref="L62:L70"/>
+    <mergeCell ref="A71:A86"/>
+    <mergeCell ref="L53:L61"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
